--- a/Daksla.xlsx
+++ b/Daksla.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Activities</t>
   </si>
@@ -29,36 +31,6 @@
     <t>Time End</t>
   </si>
   <si>
-    <t xml:space="preserve">Research of how to improve the student information system </t>
-  </si>
-  <si>
-    <t>Researching samples Gantt Chart of Hotel Management System.</t>
-  </si>
-  <si>
-    <t>Researching also for another feautures of our system.</t>
-  </si>
-  <si>
-    <t>Studying the other progress of existing Hotel Management System.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continue searching on Wednesday, we have an Group Activity to make our system 30% working. </t>
-  </si>
-  <si>
-    <t>Researching also for the environment of VB</t>
-  </si>
-  <si>
-    <t>Visiting the website of project libre for the samples of a Gantt Chart.</t>
-  </si>
-  <si>
-    <t>Visiting the website of project libre for the samples of a Gantt Chart.</t>
-  </si>
-  <si>
-    <t>Focus on searching about the other examples of a gantt chart in Project Libre and studying also for what would be the procedure connected in our system.</t>
-  </si>
-  <si>
-    <t>Studying a roles and responsibilities of having a task regarding to our system/gant chart.</t>
-  </si>
-  <si>
     <t>Continue searching on Wednesday, we have an Group Activity to make our system 30% working.</t>
   </si>
   <si>
@@ -78,39 +50,43 @@
   </si>
   <si>
     <t>3.Studying a roles and responsibilities of having a task regarding to our system/gant chart.</t>
+  </si>
+  <si>
+    <t>1.Searching of references for Hotel Management System Documentation (Chapter 1-3).</t>
+  </si>
+  <si>
+    <t>2.Studying and Exploring the Background of the Hotel Management System existed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="18" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="14" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <charset val="134"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -141,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -254,13 +230,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,28 +297,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -312,23 +333,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -378,71 +424,71 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,7 +578,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -586,24 +632,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="57">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="9" customWidth="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="54.85547" style="0"/>
-    <col min="2" max="2" customWidth="1" width="21.425781" style="0"/>
-    <col min="3" max="3" customWidth="1" width="21.855469" style="0"/>
-    <col min="4" max="4" customWidth="1" width="20.570312" style="0"/>
-    <col min="5" max="5" customWidth="1" width="17.855469" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,32 +665,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="15.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="C2" s="6">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="D2" s="7">
-        <v>0.3597222222222222</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="E2" s="8">
-        <v>0.38125</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8" ht="15.15">
+        <v>0.38124999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="C3" s="10">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="D3" s="7">
         <v>0.3828125</v>
@@ -654,101 +699,242 @@
         <v>0.42291666666666666</v>
       </c>
     </row>
-    <row r="4" spans="8:8" ht="15.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="C4" s="10">
-        <v>43730.0</v>
+        <v>43730</v>
       </c>
       <c r="D4" s="12">
         <v>0.4236111111111111</v>
       </c>
       <c r="E4" s="8">
-        <v>0.4340277777777778</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" s="13" ht="15.15" customFormat="1">
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="8:8" ht="15.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="C6" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="D6" s="12">
-        <v>0.8416666666666667</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="E6" s="17">
-        <v>0.8958333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" ht="15.15">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="C7" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="D7" s="12">
-        <v>0.8972222222222223</v>
+        <v>0.89722222222222225</v>
       </c>
       <c r="E7" s="17">
-        <v>0.9291666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" ht="15.15">
+        <v>0.92916666666666659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="C8" s="10">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="D8" s="12">
-        <v>0.9312499999999999</v>
+        <v>0.93124999999999991</v>
       </c>
       <c r="E8" s="17">
         <v>0.9604166666666667</v>
       </c>
     </row>
-    <row r="9" spans="8:8" s="13" ht="15.15" customFormat="1">
+    <row r="9" spans="1:5" s="13" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="8:8" ht="15.15">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10">
+        <v>43730</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43730</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.3828125</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.42291666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43730</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43730</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43731</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43731</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.92916666666666659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43731</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.93124999999999991</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.9604166666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43738</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43738</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.39322916666666669</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.43142361111111116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10">
+        <v>43738</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43738</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.44809027777777782</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.49322916666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:E10"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Daksla.xlsx
+++ b/Daksla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Activities</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Time End</t>
-  </si>
-  <si>
-    <t>Continue searching on Wednesday, we have an Group Activity to make our system 30% working.</t>
   </si>
   <si>
     <t>1.Researching samples Gantt Chart of Hotel Management System.</t>
@@ -117,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,73 +212,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,31 +279,7 @@
     <xf numFmtId="18" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="92.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
@@ -667,7 +580,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>43730</v>
@@ -684,7 +597,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="10">
         <v>43730</v>
@@ -701,7 +614,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="10">
         <v>43730</v>
@@ -725,7 +638,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10">
         <v>43731</v>
@@ -742,7 +655,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10">
         <v>43731</v>
@@ -759,7 +672,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="10">
         <v>43731</v>
@@ -781,160 +694,41 @@
       <c r="D9" s="19"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43738</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43738</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.39322916666666669</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.43142361111111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="10">
-        <v>43730</v>
+        <v>43738</v>
       </c>
       <c r="C11" s="10">
-        <v>43730</v>
+        <v>43738</v>
       </c>
       <c r="D11" s="7">
-        <v>0.3828125</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.42291666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
-        <v>43730</v>
-      </c>
-      <c r="C12" s="10">
-        <v>43730</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.43402777777777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10">
-        <v>43731</v>
-      </c>
-      <c r="C14" s="10">
-        <v>43731</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.84166666666666667</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10">
-        <v>43731</v>
-      </c>
-      <c r="C15" s="10">
-        <v>43731</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.89722222222222225</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.92916666666666659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10">
-        <v>43731</v>
-      </c>
-      <c r="C16" s="10">
-        <v>43731</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.93124999999999991</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="10">
-        <v>43738</v>
-      </c>
-      <c r="C18" s="10">
-        <v>43738</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.39322916666666669</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.43142361111111116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10">
-        <v>43738</v>
-      </c>
-      <c r="C19" s="10">
-        <v>43738</v>
-      </c>
-      <c r="D19" s="7">
         <v>0.44809027777777782</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E11" s="7">
         <v>0.49322916666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:E10"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Daksla.xlsx
+++ b/Daksla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Activities</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>2.Studying and Exploring the Background of the Hotel Management System existed.</t>
+  </si>
+  <si>
+    <t>1.Chapter 3- Technical Background, System Architecture &amp; Details and technology to be used</t>
+  </si>
+  <si>
+    <t>10/17/2019</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -212,13 +218,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +369,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -728,6 +840,30 @@
         <v>0.49322916666666666</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
